--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.228519</v>
+        <v>8.467854666666666</v>
       </c>
       <c r="H2">
-        <v>9.685556999999999</v>
+        <v>25.403564</v>
       </c>
       <c r="I2">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="J2">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N2">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P2">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q2">
-        <v>55.96957847967501</v>
+        <v>72.25659903721777</v>
       </c>
       <c r="R2">
-        <v>503.726206317075</v>
+        <v>650.30939133496</v>
       </c>
       <c r="S2">
-        <v>0.02933009535048062</v>
+        <v>0.04466993486085033</v>
       </c>
       <c r="T2">
-        <v>0.02933009535048062</v>
+        <v>0.04466993486085034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.228519</v>
+        <v>8.467854666666666</v>
       </c>
       <c r="H3">
-        <v>9.685556999999999</v>
+        <v>25.403564</v>
       </c>
       <c r="I3">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="J3">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.233122</v>
       </c>
       <c r="O3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P3">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q3">
-        <v>29.307550602106</v>
+        <v>76.8687064052009</v>
       </c>
       <c r="R3">
-        <v>263.767955418954</v>
+        <v>691.8183576468081</v>
       </c>
       <c r="S3">
-        <v>0.01535822275240041</v>
+        <v>0.04752119742294431</v>
       </c>
       <c r="T3">
-        <v>0.0153582227524004</v>
+        <v>0.04752119742294431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.228519</v>
+        <v>8.467854666666666</v>
       </c>
       <c r="H4">
-        <v>9.685556999999999</v>
+        <v>25.403564</v>
       </c>
       <c r="I4">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="J4">
-        <v>0.0641296566303666</v>
+        <v>0.1523462492674013</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>34.473282</v>
       </c>
       <c r="O4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P4">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q4">
-        <v>37.099215309786</v>
+        <v>97.30491395300531</v>
       </c>
       <c r="R4">
-        <v>333.8929377880739</v>
+        <v>875.7442255770479</v>
       </c>
       <c r="S4">
-        <v>0.01944133852748558</v>
+        <v>0.06015511698360665</v>
       </c>
       <c r="T4">
-        <v>0.01944133852748558</v>
+        <v>0.06015511698360666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>27.845853</v>
       </c>
       <c r="I5">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="J5">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N5">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O5">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P5">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q5">
-        <v>160.9118251864084</v>
+        <v>79.20332104071333</v>
       </c>
       <c r="R5">
-        <v>1448.206426677675</v>
+        <v>712.82988936642</v>
       </c>
       <c r="S5">
-        <v>0.08432365052474182</v>
+        <v>0.04896448544207475</v>
       </c>
       <c r="T5">
-        <v>0.08432365052474182</v>
+        <v>0.04896448544207475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>27.845853</v>
       </c>
       <c r="I6">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="J6">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.233122</v>
       </c>
       <c r="O6">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P6">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q6">
         <v>84.25883466034068</v>
@@ -818,10 +818,10 @@
         <v>758.3295119430661</v>
       </c>
       <c r="S6">
-        <v>0.04415469477951522</v>
+        <v>0.05208986730457531</v>
       </c>
       <c r="T6">
-        <v>0.04415469477951522</v>
+        <v>0.0520898673045753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>27.845853</v>
       </c>
       <c r="I7">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="J7">
-        <v>0.1843719459262553</v>
+        <v>0.1669927598427297</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>34.473282</v>
       </c>
       <c r="O7">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P7">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q7">
         <v>106.659771444394</v>
@@ -880,10 +880,10 @@
         <v>959.937942999546</v>
       </c>
       <c r="S7">
-        <v>0.0558936006219983</v>
+        <v>0.06593840709607969</v>
       </c>
       <c r="T7">
-        <v>0.0558936006219983</v>
+        <v>0.06593840709607969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>113.499447</v>
       </c>
       <c r="I8">
-        <v>0.751498397443378</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="J8">
-        <v>0.7514983974433781</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.33599166666667</v>
+        <v>8.533046666666666</v>
       </c>
       <c r="N8">
-        <v>52.007975</v>
+        <v>25.59914</v>
       </c>
       <c r="O8">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="P8">
-        <v>0.4573561888773979</v>
+        <v>0.2932132236642383</v>
       </c>
       <c r="Q8">
-        <v>655.8751557877583</v>
+        <v>322.8320259639533</v>
       </c>
       <c r="R8">
-        <v>5902.876402089825</v>
+        <v>2905.48823367558</v>
       </c>
       <c r="S8">
-        <v>0.3437024430021754</v>
+        <v>0.1995788033613132</v>
       </c>
       <c r="T8">
-        <v>0.3437024430021755</v>
+        <v>0.1995788033613132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>113.499447</v>
       </c>
       <c r="I9">
-        <v>0.751498397443378</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="J9">
-        <v>0.7514983974433781</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>27.233122</v>
       </c>
       <c r="O9">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200195</v>
       </c>
       <c r="P9">
-        <v>0.2394870573052156</v>
+        <v>0.3119288965200194</v>
       </c>
       <c r="Q9">
         <v>343.4382541203927</v>
@@ -1004,10 +1004,10 @@
         <v>3090.944287083534</v>
       </c>
       <c r="S9">
-        <v>0.1799741397733</v>
+        <v>0.2123178317924999</v>
       </c>
       <c r="T9">
-        <v>0.1799741397733</v>
+        <v>0.2123178317924998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>113.499447</v>
       </c>
       <c r="I10">
-        <v>0.751498397443378</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="J10">
-        <v>0.7514983974433781</v>
+        <v>0.680660990889869</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>34.473282</v>
       </c>
       <c r="O10">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="P10">
-        <v>0.3031567538173866</v>
+        <v>0.3948578798157423</v>
       </c>
       <c r="Q10">
         <v>434.7442714750059</v>
@@ -1066,10 +1066,10 @@
         <v>3912.698443275054</v>
       </c>
       <c r="S10">
-        <v>0.2278218146679027</v>
+        <v>0.2687643557360559</v>
       </c>
       <c r="T10">
-        <v>0.2278218146679027</v>
+        <v>0.2687643557360559</v>
       </c>
     </row>
   </sheetData>
